--- a/po-status.xlsx
+++ b/po-status.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\esolon\OneDrive - Boston Semi Equipment LLC\Github Projects\PO_Status\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mvtstechnologies-my.sharepoint.com/personal/edsel_solon_bsegroup_com/Documents/Github Projects/PO_Status/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52648CD9-9588-495C-B516-DCF04B27A16B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="11_BEA61AB93885F3985D2921609675981670D885A7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E181D362-08B5-4B8B-A92D-57A72A7E0BB3}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -136,7 +136,7 @@
     <t>TBA</t>
   </si>
   <si>
-    <t>Last updated: 2025-07-14 07:59:41</t>
+    <t>Last updated: 2025-07-15 06:10:51</t>
   </si>
 </sst>
 </file>
@@ -702,7 +702,7 @@
         <v>25</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D9">
         <v>16</v>
@@ -714,10 +714,10 @@
         <v>3</v>
       </c>
       <c r="H9">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -1012,7 +1012,7 @@
         <v>41</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="D20">
         <v>14</v>
@@ -1024,10 +1024,10 @@
         <v>14</v>
       </c>
       <c r="H20">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.55000000000000004">

--- a/po-status.xlsx
+++ b/po-status.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mvtstechnologies-my.sharepoint.com/personal/edsel_solon_bsegroup_com/Documents/Github Projects/PO_Status/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_BEA61AB93885F3985D2921609675981670D885A7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E181D362-08B5-4B8B-A92D-57A72A7E0BB3}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="11_BEA61AB927D5B2BA8529218DDEB394D471D8859E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D3D4CA06-2F45-42E5-8C8B-6F6AD14B76DC}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="36">
   <si>
     <t>PO_No</t>
   </si>
@@ -52,12 +52,15 @@
     <t>HasUnshippedCommitted</t>
   </si>
   <si>
-    <t>224313</t>
+    <t>4516260169</t>
   </si>
   <si>
     <t>Completed PO</t>
   </si>
   <si>
+    <t>47188646</t>
+  </si>
+  <si>
     <t>3T/PO252272</t>
   </si>
   <si>
@@ -67,9 +70,6 @@
     <t>4020007186</t>
   </si>
   <si>
-    <t>4516260169</t>
-  </si>
-  <si>
     <t>4516351202_AIZU</t>
   </si>
   <si>
@@ -115,19 +115,13 @@
     <t>4516351202_UTL</t>
   </si>
   <si>
-    <t>47188646</t>
-  </si>
-  <si>
     <t>47225672</t>
   </si>
   <si>
     <t>4910171717</t>
   </si>
   <si>
-    <t>aerwe233</t>
-  </si>
-  <si>
-    <t>Global PO 4515617766</t>
+    <t>Global PO 4516351202</t>
   </si>
   <si>
     <t>PP25-1057NI</t>
@@ -136,7 +130,7 @@
     <t>TBA</t>
   </si>
   <si>
-    <t>Last updated: 2025-07-15 06:10:51</t>
+    <t>Last updated: 2025-07-15 07:58:12</t>
   </si>
 </sst>
 </file>
@@ -488,7 +482,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -525,16 +519,16 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F3" t="s">
         <v>10</v>
@@ -543,7 +537,7 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -554,13 +548,13 @@
         <v>11</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -569,7 +563,7 @@
         <v>10</v>
       </c>
       <c r="G4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -612,7 +606,7 @@
         <v>13</v>
       </c>
       <c r="B6">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -627,7 +621,7 @@
         <v>10</v>
       </c>
       <c r="G6">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -641,7 +635,7 @@
         <v>14</v>
       </c>
       <c r="B7">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -656,7 +650,7 @@
         <v>10</v>
       </c>
       <c r="G7">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -667,10 +661,10 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -679,13 +673,13 @@
         <v>0</v>
       </c>
       <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8">
         <v>3</v>
-      </c>
-      <c r="F8" t="s">
-        <v>10</v>
-      </c>
-      <c r="G8">
-        <v>12</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -696,22 +690,22 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B9">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="C9">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D9">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -722,48 +716,48 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B10">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
-      <c r="F10" t="s">
-        <v>10</v>
-      </c>
       <c r="G10">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B11">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E11">
         <v>0</v>
+      </c>
+      <c r="F11" t="s">
+        <v>10</v>
       </c>
       <c r="G11">
         <v>14</v>
@@ -777,11 +771,11 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12">
         <v>19</v>
       </c>
-      <c r="B12">
-        <v>2</v>
-      </c>
       <c r="C12">
         <v>0</v>
       </c>
@@ -795,7 +789,7 @@
         <v>10</v>
       </c>
       <c r="G12">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -806,10 +800,10 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B13">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -824,7 +818,7 @@
         <v>10</v>
       </c>
       <c r="G13">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -835,10 +829,10 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B14">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -847,13 +841,13 @@
         <v>0</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14" t="s">
         <v>10</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -864,10 +858,10 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B15">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -876,13 +870,13 @@
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15" t="s">
         <v>10</v>
       </c>
       <c r="G15">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -893,10 +887,10 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -911,7 +905,7 @@
         <v>10</v>
       </c>
       <c r="G16">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -922,22 +916,25 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B17">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
+      <c r="F17" t="s">
+        <v>10</v>
+      </c>
       <c r="G17">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -948,39 +945,36 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B18">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E18">
-        <v>1</v>
-      </c>
-      <c r="F18" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G18">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B19">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -989,16 +983,16 @@
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F19" t="s">
         <v>10</v>
       </c>
       <c r="G19">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1006,77 +1000,77 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B20">
-        <v>41</v>
+        <v>8</v>
       </c>
       <c r="C20">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="D20">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
+      <c r="F20" t="s">
+        <v>10</v>
+      </c>
       <c r="G20">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21">
+        <v>51</v>
+      </c>
+      <c r="C21">
+        <v>5</v>
+      </c>
+      <c r="D21">
+        <v>8</v>
+      </c>
+      <c r="E21">
+        <v>10</v>
+      </c>
+      <c r="G21">
         <v>28</v>
       </c>
-      <c r="B21">
-        <v>56</v>
-      </c>
-      <c r="C21">
-        <v>0</v>
-      </c>
-      <c r="D21">
-        <v>1</v>
-      </c>
-      <c r="E21">
-        <v>6</v>
-      </c>
-      <c r="G21">
-        <v>48</v>
-      </c>
       <c r="H21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B22">
-        <v>1</v>
+        <v>56</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
-      <c r="F22" t="s">
-        <v>10</v>
-      </c>
       <c r="G22">
-        <v>1</v>
+        <v>53</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1087,10 +1081,10 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -1105,7 +1099,7 @@
         <v>10</v>
       </c>
       <c r="G23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1116,10 +1110,10 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="B24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C24">
         <v>0</v>
@@ -1128,13 +1122,13 @@
         <v>0</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F24" t="s">
         <v>10</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1145,25 +1139,25 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E25">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F25" t="s">
         <v>10</v>
       </c>
       <c r="G25">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1174,25 +1168,25 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B26">
+        <v>10</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
         <v>2</v>
       </c>
-      <c r="C26">
-        <v>0</v>
-      </c>
-      <c r="D26">
-        <v>0</v>
-      </c>
       <c r="E26">
+        <v>6</v>
+      </c>
+      <c r="F26" t="s">
+        <v>10</v>
+      </c>
+      <c r="G26">
         <v>2</v>
-      </c>
-      <c r="F26" t="s">
-        <v>10</v>
-      </c>
-      <c r="G26">
-        <v>0</v>
       </c>
       <c r="H26">
         <v>0</v>
@@ -1203,25 +1197,22 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B27">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="C27">
         <v>0</v>
       </c>
       <c r="D27">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E27">
-        <v>10</v>
-      </c>
-      <c r="F27" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G27">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H27">
         <v>0</v>
@@ -1232,7 +1223,7 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B28">
         <v>3</v>
@@ -1261,7 +1252,7 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B29">
         <v>24</v>
@@ -1270,10 +1261,10 @@
         <v>0</v>
       </c>
       <c r="D29">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E29">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G29">
         <v>9</v>

--- a/po-status.xlsx
+++ b/po-status.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mvtstechnologies-my.sharepoint.com/personal/edsel_solon_bsegroup_com/Documents/Github Projects/PO_Status/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_BEA61AB927D5B2BA8529218DDEB394D471D8859E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D3D4CA06-2F45-42E5-8C8B-6F6AD14B76DC}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="11_BEA61AB9379D32AFA5282147363482F070D88594" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A8DA450A-E738-4641-898A-A74DDD4395CF}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="54" yWindow="1386" windowWidth="22986" windowHeight="8892" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PO_StatusQry" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="38">
   <si>
     <t>PO_No</t>
   </si>
@@ -52,69 +52,75 @@
     <t>HasUnshippedCommitted</t>
   </si>
   <si>
+    <t>3T/PO252272</t>
+  </si>
+  <si>
+    <t>Completed PO</t>
+  </si>
+  <si>
+    <t>4010016033</t>
+  </si>
+  <si>
+    <t>4020007186</t>
+  </si>
+  <si>
     <t>4516260169</t>
   </si>
   <si>
-    <t>Completed PO</t>
+    <t>4516351202_AIZU</t>
+  </si>
+  <si>
+    <t>4516351202_ARD</t>
+  </si>
+  <si>
+    <t>4516351202_ASEWH</t>
+  </si>
+  <si>
+    <t>4516351202_ATK</t>
+  </si>
+  <si>
+    <t>4516351202_DMOS5</t>
+  </si>
+  <si>
+    <t>4516351202_HNT</t>
+  </si>
+  <si>
+    <t>4516351202_LFAB</t>
+  </si>
+  <si>
+    <t>4516351202_MIHO</t>
+  </si>
+  <si>
+    <t>4516351202_NFME</t>
+  </si>
+  <si>
+    <t>4516351202_SCT</t>
+  </si>
+  <si>
+    <t>4516351202_SFAB</t>
+  </si>
+  <si>
+    <t>4516351202_TICL-FT</t>
+  </si>
+  <si>
+    <t>4516351202_TICL-PR</t>
+  </si>
+  <si>
+    <t>4516351202_TII</t>
+  </si>
+  <si>
+    <t>4516351202_TIPI</t>
+  </si>
+  <si>
+    <t>4516351202_TITL</t>
+  </si>
+  <si>
+    <t>4516351202_UTL</t>
   </si>
   <si>
     <t>47188646</t>
   </si>
   <si>
-    <t>3T/PO252272</t>
-  </si>
-  <si>
-    <t>4010016033</t>
-  </si>
-  <si>
-    <t>4020007186</t>
-  </si>
-  <si>
-    <t>4516351202_AIZU</t>
-  </si>
-  <si>
-    <t>4516351202_ARD</t>
-  </si>
-  <si>
-    <t>4516351202_ASEWH</t>
-  </si>
-  <si>
-    <t>4516351202_ATK</t>
-  </si>
-  <si>
-    <t>4516351202_DMOS5</t>
-  </si>
-  <si>
-    <t>4516351202_HNT</t>
-  </si>
-  <si>
-    <t>4516351202_LFAB</t>
-  </si>
-  <si>
-    <t>4516351202_MIHO</t>
-  </si>
-  <si>
-    <t>4516351202_SCT</t>
-  </si>
-  <si>
-    <t>4516351202_TICL-FT</t>
-  </si>
-  <si>
-    <t>4516351202_TICL-PR</t>
-  </si>
-  <si>
-    <t>4516351202_TII</t>
-  </si>
-  <si>
-    <t>4516351202_TIPI</t>
-  </si>
-  <si>
-    <t>4516351202_TITL</t>
-  </si>
-  <si>
-    <t>4516351202_UTL</t>
-  </si>
-  <si>
     <t>47225672</t>
   </si>
   <si>
@@ -130,7 +136,7 @@
     <t>TBA</t>
   </si>
   <si>
-    <t>Last updated: 2025-07-15 07:58:12</t>
+    <t>Last updated: 2025-07-15 10:52:33</t>
   </si>
 </sst>
 </file>
@@ -482,7 +488,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -519,7 +525,7 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -534,10 +540,10 @@
         <v>10</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -548,13 +554,13 @@
         <v>11</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -563,7 +569,7 @@
         <v>10</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -577,7 +583,7 @@
         <v>12</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -592,7 +598,7 @@
         <v>10</v>
       </c>
       <c r="G5">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -606,7 +612,7 @@
         <v>13</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -621,7 +627,7 @@
         <v>10</v>
       </c>
       <c r="G6">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -635,117 +641,117 @@
         <v>14</v>
       </c>
       <c r="B7">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
-      <c r="F7" t="s">
-        <v>10</v>
-      </c>
       <c r="G7">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B8">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
-      <c r="F8" t="s">
-        <v>10</v>
-      </c>
       <c r="G8">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B9">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
+      <c r="F9" t="s">
+        <v>10</v>
+      </c>
       <c r="G9">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B10">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
+      <c r="F10" t="s">
+        <v>10</v>
+      </c>
       <c r="G10">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B11">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -760,7 +766,7 @@
         <v>10</v>
       </c>
       <c r="G11">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -771,10 +777,10 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B12">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -789,7 +795,7 @@
         <v>10</v>
       </c>
       <c r="G12">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -800,10 +806,10 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -812,13 +818,13 @@
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13" t="s">
         <v>10</v>
       </c>
       <c r="G13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -829,10 +835,10 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B14">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -847,7 +853,7 @@
         <v>10</v>
       </c>
       <c r="G14">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -858,10 +864,10 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -870,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15" t="s">
         <v>10</v>
@@ -887,10 +893,10 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B16">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -905,7 +911,7 @@
         <v>10</v>
       </c>
       <c r="G16">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -916,10 +922,10 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B17">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -928,13 +934,13 @@
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17" t="s">
         <v>10</v>
       </c>
       <c r="G17">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -945,7 +951,7 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B18">
         <v>31</v>
@@ -971,7 +977,7 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B19">
         <v>6</v>
@@ -1000,7 +1006,7 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B20">
         <v>8</v>
@@ -1029,7 +1035,7 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B21">
         <v>51</v>
@@ -1055,7 +1061,7 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B22">
         <v>56</v>
@@ -1081,7 +1087,7 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B23">
         <v>1</v>
@@ -1110,16 +1116,16 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="B24">
+        <v>4</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
         <v>2</v>
-      </c>
-      <c r="C24">
-        <v>0</v>
-      </c>
-      <c r="D24">
-        <v>0</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1139,7 +1145,7 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B25">
         <v>1</v>
@@ -1168,7 +1174,7 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B26">
         <v>10</v>
@@ -1197,7 +1203,7 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B27">
         <v>19</v>
@@ -1223,7 +1229,7 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B28">
         <v>3</v>
@@ -1252,7 +1258,7 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B29">
         <v>24</v>

--- a/po-status.xlsx
+++ b/po-status.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mvtstechnologies-my.sharepoint.com/personal/edsel_solon_bsegroup_com/Documents/Github Projects/PO_Status/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_BEA61AB9379D32AFA5282147363482F070D88594" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A8DA450A-E738-4641-898A-A74DDD4395CF}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="11_BEA61AB9F315F6A38B2921E7C6B2BFA870D88594" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C10ADD05-23CF-4DFD-9AA4-20172098004C}"/>
   <bookViews>
     <workbookView xWindow="54" yWindow="1386" windowWidth="22986" windowHeight="8892" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -136,7 +136,7 @@
     <t>TBA</t>
   </si>
   <si>
-    <t>Last updated: 2025-07-15 10:52:33</t>
+    <t>Last updated: 2025-07-15 14:22:10</t>
   </si>
 </sst>
 </file>
@@ -1041,10 +1041,10 @@
         <v>51</v>
       </c>
       <c r="C21">
+        <v>8</v>
+      </c>
+      <c r="D21">
         <v>5</v>
-      </c>
-      <c r="D21">
-        <v>8</v>
       </c>
       <c r="E21">
         <v>10</v>

--- a/po-status.xlsx
+++ b/po-status.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mvtstechnologies-my.sharepoint.com/personal/edsel_solon_bsegroup_com/Documents/Github Projects/PO_Status/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\esolon\OneDrive - Boston Semi Equipment LLC\Github Projects\PO_Status\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_BEA61AB9F315F6A38B2921E7C6B2BFA870D88594" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C10ADD05-23CF-4DFD-9AA4-20172098004C}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F4BB776-E41C-4574-95F6-D06347B4482A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="54" yWindow="1386" windowWidth="22986" windowHeight="8892" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="38">
   <si>
     <t>PO_No</t>
   </si>
@@ -136,7 +136,7 @@
     <t>TBA</t>
   </si>
   <si>
-    <t>Last updated: 2025-07-15 14:22:10</t>
+    <t>Last updated: 2025-07-17 10:54:49</t>
   </si>
 </sst>
 </file>
@@ -641,25 +641,25 @@
         <v>14</v>
       </c>
       <c r="B7">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D7">
         <v>1</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G7">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -670,22 +670,22 @@
         <v>25</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I8">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -931,13 +931,10 @@
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="F17" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -957,16 +954,16 @@
         <v>31</v>
       </c>
       <c r="C18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D18">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1041,7 +1038,7 @@
         <v>51</v>
       </c>
       <c r="C21">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D21">
         <v>5</v>
@@ -1050,13 +1047,13 @@
         <v>10</v>
       </c>
       <c r="G21">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -1122,10 +1119,10 @@
         <v>4</v>
       </c>
       <c r="C24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1140,7 +1137,7 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.55000000000000004">

--- a/po-status.xlsx
+++ b/po-status.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\esolon\OneDrive - Boston Semi Equipment LLC\Github Projects\PO_Status\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F4BB776-E41C-4574-95F6-D06347B4482A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46FA3AA5-5D21-41F6-8444-1C5C75B72707}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="54" yWindow="1386" windowWidth="22986" windowHeight="8892" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -136,7 +136,7 @@
     <t>TBA</t>
   </si>
   <si>
-    <t>Last updated: 2025-07-17 10:54:49</t>
+    <t>Last updated: 2025-07-17 11:22:12</t>
   </si>
 </sst>
 </file>

--- a/po-status.xlsx
+++ b/po-status.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\esolon\OneDrive - Boston Semi Equipment LLC\Github Projects\PO_Status\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46FA3AA5-5D21-41F6-8444-1C5C75B72707}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD4CE474-1E89-48C5-8C60-8CABDDBFEE8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="54" yWindow="1386" windowWidth="22986" windowHeight="8892" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -136,7 +136,7 @@
     <t>TBA</t>
   </si>
   <si>
-    <t>Last updated: 2025-07-17 11:22:12</t>
+    <t>Last updated: 2025-07-17 14:43:21</t>
   </si>
 </sst>
 </file>
@@ -1206,10 +1206,10 @@
         <v>19</v>
       </c>
       <c r="C27">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D27">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E27">
         <v>9</v>
@@ -1221,7 +1221,7 @@
         <v>0</v>
       </c>
       <c r="I27">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.55000000000000004">

--- a/po-status.xlsx
+++ b/po-status.xlsx
@@ -8,22 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\esolon\OneDrive - Boston Semi Equipment LLC\Github Projects\PO_Status\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD4CE474-1E89-48C5-8C60-8CABDDBFEE8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F2EA121-CD93-4126-B224-4BD411FDA9AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="54" yWindow="1386" windowWidth="22986" windowHeight="8892" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PO_StatusQry" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="PO_StatusQry">PO_StatusQry!$A$2:$I$29</definedName>
+    <definedName name="PO_StatusQry">PO_StatusQry!$A$2:$I$36</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="43">
   <si>
     <t>PO_No</t>
   </si>
@@ -52,21 +52,30 @@
     <t>HasUnshippedCommitted</t>
   </si>
   <si>
+    <t>4516260169</t>
+  </si>
+  <si>
+    <t>Completed PO</t>
+  </si>
+  <si>
+    <t>47188646</t>
+  </si>
+  <si>
+    <t>3232</t>
+  </si>
+  <si>
+    <t>352345</t>
+  </si>
+  <si>
     <t>3T/PO252272</t>
   </si>
   <si>
-    <t>Completed PO</t>
-  </si>
-  <si>
     <t>4010016033</t>
   </si>
   <si>
     <t>4020007186</t>
   </si>
   <si>
-    <t>4516260169</t>
-  </si>
-  <si>
     <t>4516351202_AIZU</t>
   </si>
   <si>
@@ -118,25 +127,31 @@
     <t>4516351202_UTL</t>
   </si>
   <si>
-    <t>47188646</t>
-  </si>
-  <si>
     <t>47225672</t>
   </si>
   <si>
     <t>4910171717</t>
   </si>
   <si>
+    <t>4ter343</t>
+  </si>
+  <si>
+    <t>erq3455</t>
+  </si>
+  <si>
     <t>Global PO 4516351202</t>
   </si>
   <si>
     <t>PP25-1057NI</t>
   </si>
   <si>
+    <t>rerer323</t>
+  </si>
+  <si>
     <t>TBA</t>
   </si>
   <si>
-    <t>Last updated: 2025-07-17 14:43:21</t>
+    <t>Last updated: 2025-07-18 12:07:31</t>
   </si>
 </sst>
 </file>
@@ -478,7 +493,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I29"/>
+  <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
@@ -488,7 +503,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -525,7 +540,7 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -540,10 +555,10 @@
         <v>10</v>
       </c>
       <c r="G3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -554,13 +569,13 @@
         <v>11</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -569,7 +584,7 @@
         <v>10</v>
       </c>
       <c r="G4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -583,22 +598,22 @@
         <v>12</v>
       </c>
       <c r="B5">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5" t="s">
         <v>10</v>
       </c>
       <c r="G5">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -612,7 +627,7 @@
         <v>13</v>
       </c>
       <c r="B6">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -621,13 +636,13 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F6" t="s">
         <v>10</v>
       </c>
       <c r="G6">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -641,19 +656,22 @@
         <v>14</v>
       </c>
       <c r="B7">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="F7" t="s">
+        <v>10</v>
       </c>
       <c r="G7">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -667,22 +685,25 @@
         <v>15</v>
       </c>
       <c r="B8">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
+      <c r="F8" t="s">
+        <v>10</v>
+      </c>
       <c r="G8">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="H8">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -693,7 +714,7 @@
         <v>16</v>
       </c>
       <c r="B9">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -708,7 +729,7 @@
         <v>10</v>
       </c>
       <c r="G9">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -719,10 +740,10 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B10">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -731,13 +752,13 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F10" t="s">
         <v>10</v>
       </c>
       <c r="G10">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -748,68 +769,62 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B11">
+        <v>15</v>
+      </c>
+      <c r="C11">
         <v>2</v>
       </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
       <c r="D11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
-      <c r="F11" t="s">
-        <v>10</v>
-      </c>
       <c r="G11">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B12">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="G12">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -818,13 +833,13 @@
         <v>0</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13" t="s">
         <v>10</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -835,10 +850,10 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B14">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -853,7 +868,7 @@
         <v>10</v>
       </c>
       <c r="G14">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -864,10 +879,10 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -876,13 +891,13 @@
         <v>0</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F15" t="s">
         <v>10</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -893,10 +908,10 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -911,7 +926,7 @@
         <v>10</v>
       </c>
       <c r="G16">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -922,7 +937,7 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -931,10 +946,13 @@
         <v>0</v>
       </c>
       <c r="D17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F17" t="s">
+        <v>10</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -948,36 +966,39 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B18">
         <v>31</v>
       </c>
       <c r="C18">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D18">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
+      <c r="F18" t="s">
+        <v>10</v>
+      </c>
       <c r="G18">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B19">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -986,13 +1007,13 @@
         <v>0</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19" t="s">
         <v>10</v>
       </c>
       <c r="G19">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1003,10 +1024,10 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B20">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -1021,7 +1042,7 @@
         <v>10</v>
       </c>
       <c r="G20">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1032,22 +1053,25 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B21">
-        <v>51</v>
+        <v>1</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21" t="s">
         <v>10</v>
       </c>
       <c r="G21">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1058,36 +1082,36 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B22">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D22">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>53</v>
+        <v>21</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B23">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -1096,13 +1120,13 @@
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F23" t="s">
         <v>10</v>
       </c>
       <c r="G23">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1113,16 +1137,16 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B24">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1131,65 +1155,59 @@
         <v>10</v>
       </c>
       <c r="G24">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B25">
-        <v>1</v>
+        <v>51</v>
       </c>
       <c r="C25">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D25">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25" t="s">
         <v>10</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B26">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="C26">
         <v>0</v>
       </c>
       <c r="D26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E26">
-        <v>6</v>
-      </c>
-      <c r="F26" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G26">
-        <v>2</v>
+        <v>53</v>
       </c>
       <c r="H26">
         <v>0</v>
@@ -1200,36 +1218,39 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B27">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="C27">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D27">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E27">
-        <v>9</v>
+        <v>0</v>
+      </c>
+      <c r="F27" t="s">
+        <v>10</v>
       </c>
       <c r="G27">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H27">
         <v>0</v>
       </c>
       <c r="I27">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="B28">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C28">
         <v>0</v>
@@ -1244,7 +1265,7 @@
         <v>10</v>
       </c>
       <c r="G28">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H28">
         <v>0</v>
@@ -1255,27 +1276,227 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" t="s">
+        <v>34</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29" t="s">
+        <v>10</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" t="s">
+        <v>35</v>
+      </c>
+      <c r="B30">
+        <v>10</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>2</v>
+      </c>
+      <c r="E30">
+        <v>6</v>
+      </c>
+      <c r="F30" t="s">
+        <v>10</v>
+      </c>
+      <c r="G30">
+        <v>2</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" t="s">
         <v>36</v>
       </c>
-      <c r="B29">
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31" t="s">
+        <v>10</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" t="s">
+        <v>37</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32" t="s">
+        <v>10</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33" t="s">
+        <v>38</v>
+      </c>
+      <c r="B33">
+        <v>19</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>7</v>
+      </c>
+      <c r="E33">
+        <v>9</v>
+      </c>
+      <c r="G33">
+        <v>3</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34" t="s">
+        <v>39</v>
+      </c>
+      <c r="B34">
+        <v>3</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34" t="s">
+        <v>10</v>
+      </c>
+      <c r="G34">
+        <v>3</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A35" t="s">
+        <v>40</v>
+      </c>
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="F35" t="s">
+        <v>10</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36" t="s">
+        <v>41</v>
+      </c>
+      <c r="B36">
         <v>24</v>
       </c>
-      <c r="C29">
-        <v>0</v>
-      </c>
-      <c r="D29">
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
         <v>14</v>
       </c>
-      <c r="E29">
-        <v>1</v>
-      </c>
-      <c r="G29">
+      <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="G36">
         <v>9</v>
       </c>
-      <c r="H29">
-        <v>0</v>
-      </c>
-      <c r="I29">
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36">
         <v>0</v>
       </c>
     </row>

--- a/po-status.xlsx
+++ b/po-status.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\esolon\OneDrive - Boston Semi Equipment LLC\Github Projects\PO_Status\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E380F6C9-F412-4D24-BC36-504D18EB0EB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE1471A8-46A1-478E-81AB-10643EF8E118}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,14 +16,14 @@
     <sheet name="PO_StatusQry" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="PO_StatusQry">PO_StatusQry!$A$2:$M$41</definedName>
+    <definedName name="PO_StatusQry">PO_StatusQry!$A$2:$M$43</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="102">
   <si>
     <t>CustName</t>
   </si>
@@ -70,7 +70,7 @@
     <t>TBA</t>
   </si>
   <si>
-    <t>OverDue by 116 days</t>
+    <t>OverDue by 129 days</t>
   </si>
   <si>
     <t>Varies (2025-04-21 → 2025-08-04)</t>
@@ -82,7 +82,79 @@
     <t>4910171717</t>
   </si>
   <si>
-    <t>OverDue by 72 days</t>
+    <t>OverDue by 85 days</t>
+  </si>
+  <si>
+    <t>TI (Philippines) Inc.</t>
+  </si>
+  <si>
+    <t>4516351202_TIPI</t>
+  </si>
+  <si>
+    <t>OverDue by 15 days</t>
+  </si>
+  <si>
+    <t>Varies (2025-08-13 → 2025-08-29)</t>
+  </si>
+  <si>
+    <t>TI Philippines, Inc - Clark FT</t>
+  </si>
+  <si>
+    <t>4516351202_TICL-FT</t>
+  </si>
+  <si>
+    <t>Varies (2025-08-13 → 2025-09-09)</t>
+  </si>
+  <si>
+    <t>Swindon Silicon System</t>
+  </si>
+  <si>
+    <t>TBD</t>
+  </si>
+  <si>
+    <t>OverDue by 8 days</t>
+  </si>
+  <si>
+    <t>Texas Instruments Taiwan</t>
+  </si>
+  <si>
+    <t>4516351202_TITL</t>
+  </si>
+  <si>
+    <t>OverDue by 2 days</t>
+  </si>
+  <si>
+    <t>Varies (2025-08-26 → 2025-09-10)</t>
+  </si>
+  <si>
+    <t>TI Philippines, Inc - Clark</t>
+  </si>
+  <si>
+    <t>4516351202_TICL-PR</t>
+  </si>
+  <si>
+    <t>Varies (2025-08-26 → 2025-08-29)</t>
+  </si>
+  <si>
+    <t>ARDENTEC CORPORATION</t>
+  </si>
+  <si>
+    <t>4516351202_ARD</t>
+  </si>
+  <si>
+    <t>OverDue by 1 days</t>
+  </si>
+  <si>
+    <t>Varies (2025-08-27 → 2025-08-29)</t>
+  </si>
+  <si>
+    <t>Texas Instruments SFAB</t>
+  </si>
+  <si>
+    <t>4516351202_SFAB</t>
+  </si>
+  <si>
+    <t>12 days before Due</t>
   </si>
   <si>
     <t>Ardentec Korea Co., Ltd.</t>
@@ -91,25 +163,37 @@
     <t>4516351202_ATK</t>
   </si>
   <si>
-    <t>OverDue by 2 days</t>
-  </si>
-  <si>
-    <t>TI (Philippines) Inc.</t>
-  </si>
-  <si>
-    <t>4516351202_TIPI</t>
-  </si>
-  <si>
-    <t>Varies (2025-08-13 → 2025-08-22)</t>
-  </si>
-  <si>
-    <t>TI Philippines, Inc - Clark FT</t>
-  </si>
-  <si>
-    <t>4516351202_TICL-FT</t>
-  </si>
-  <si>
-    <t>Varies (2025-08-13 → 2025-08-26)</t>
+    <t>5 days before Due</t>
+  </si>
+  <si>
+    <t>ASE (WEIHAI), INC. Subcon-ASE A/T Weihai</t>
+  </si>
+  <si>
+    <t>4516351202_ASEWH</t>
+  </si>
+  <si>
+    <t>1 days before Due</t>
+  </si>
+  <si>
+    <t>TEXAS INSTRUMENTS  MALAYSIA</t>
+  </si>
+  <si>
+    <t>Global PO 4516351202</t>
+  </si>
+  <si>
+    <t>Varies (2025-08-29 → 2025-09-11)</t>
+  </si>
+  <si>
+    <t>Texas Instruments FTLABS</t>
+  </si>
+  <si>
+    <t>4516351202_FTLABS</t>
+  </si>
+  <si>
+    <t>Texas Instruments Japan Limited MIHO Plant (MIHO 8 FAB)</t>
+  </si>
+  <si>
+    <t>4516351202_MIHO</t>
   </si>
   <si>
     <t>Texas Instruments SCT</t>
@@ -118,52 +202,115 @@
     <t>4516351202_SCT</t>
   </si>
   <si>
-    <t>OverDue by 1 days</t>
-  </si>
-  <si>
     <t>TEXAS INSTRUMENTS (INDIA) Pvt. Ltd</t>
   </si>
   <si>
     <t>4516351202_TII</t>
   </si>
   <si>
-    <t>11 days before Due</t>
-  </si>
-  <si>
-    <t>Texas Instruments Taiwan</t>
-  </si>
-  <si>
-    <t>4516351202_TITL</t>
-  </si>
-  <si>
-    <t>TI Philippines, Inc - Clark</t>
-  </si>
-  <si>
-    <t>4516351202_TICL-PR</t>
+    <t>Texas Instruments DMOS5</t>
+  </si>
+  <si>
+    <t>4516351202_DMOS5</t>
+  </si>
+  <si>
+    <t>Analog Devices Gen. Trias Inc. (ADGT)</t>
+  </si>
+  <si>
+    <t>47225672</t>
+  </si>
+  <si>
+    <t>Texas Instruments LFAB</t>
+  </si>
+  <si>
+    <t>4516351202_LFAB</t>
+  </si>
+  <si>
+    <t>47188646</t>
+  </si>
+  <si>
+    <t>Completed PO</t>
+  </si>
+  <si>
+    <t>47218149</t>
+  </si>
+  <si>
+    <t>47245848</t>
+  </si>
+  <si>
+    <t>47245933</t>
+  </si>
+  <si>
+    <t>47253728</t>
+  </si>
+  <si>
+    <t>Hana Semiconductor (Ayutthaya) Co., Ltd (HNT)</t>
+  </si>
+  <si>
+    <t>4516351202_HNT</t>
+  </si>
+  <si>
+    <t>4910172298</t>
+  </si>
+  <si>
+    <t>JMC Worldwide Inc.</t>
+  </si>
+  <si>
+    <t>ES072525</t>
+  </si>
+  <si>
+    <t>Lingsen Precision Industries Ltd.</t>
+  </si>
+  <si>
+    <t>4516260169</t>
+  </si>
+  <si>
+    <t>Microprecision Calibration Inc.</t>
+  </si>
+  <si>
+    <t>PP25-1057NI</t>
+  </si>
+  <si>
+    <t>PP25-1069NI</t>
+  </si>
+  <si>
+    <t>3T/PO252272</t>
+  </si>
+  <si>
+    <t>ROCHESTER ELECTRONICS</t>
+  </si>
+  <si>
+    <t>252395</t>
   </si>
   <si>
     <t>ST Microelectronics Pte Ltd.</t>
   </si>
   <si>
+    <t>4020007186</t>
+  </si>
+  <si>
     <t>4020007647</t>
   </si>
   <si>
-    <t>5 days before Due</t>
-  </si>
-  <si>
-    <t>Swindon Silicon System</t>
-  </si>
-  <si>
-    <t>TBD</t>
-  </si>
-  <si>
-    <t>TEXAS INSTRUMENTS  MALAYSIA</t>
-  </si>
-  <si>
-    <t>Global PO 4516351202</t>
-  </si>
-  <si>
-    <t>Varies (2025-08-20 → 2025-08-26)</t>
+    <t>STMicroelectronics, Inc.</t>
+  </si>
+  <si>
+    <t>4010016033</t>
+  </si>
+  <si>
+    <t>Texas Instruments AIZU</t>
+  </si>
+  <si>
+    <t>4516351202_AIZU</t>
+  </si>
+  <si>
+    <t>TEXAS INSTRUMENTS INCORPORATED</t>
+  </si>
+  <si>
+    <t>4516250020</t>
+  </si>
+  <si>
+    <t>4516317906</t>
   </si>
   <si>
     <t>Tongfu Microelectronics Co.,Ltd.</t>
@@ -172,129 +319,6 @@
     <t>4516351202_NFME</t>
   </si>
   <si>
-    <t>Due Today</t>
-  </si>
-  <si>
-    <t>ARDENTEC CORPORATION</t>
-  </si>
-  <si>
-    <t>4516351202_ARD</t>
-  </si>
-  <si>
-    <t>Analog Devices Gen. Trias Inc. (ADGT)</t>
-  </si>
-  <si>
-    <t>47225672</t>
-  </si>
-  <si>
-    <t>Texas Instruments LFAB</t>
-  </si>
-  <si>
-    <t>4516351202_LFAB</t>
-  </si>
-  <si>
-    <t>Texas Instruments AIZU</t>
-  </si>
-  <si>
-    <t>4516351202_AIZU</t>
-  </si>
-  <si>
-    <t>Completed PO</t>
-  </si>
-  <si>
-    <t>47188646</t>
-  </si>
-  <si>
-    <t>47218149</t>
-  </si>
-  <si>
-    <t>47245848</t>
-  </si>
-  <si>
-    <t>47245933</t>
-  </si>
-  <si>
-    <t>ASE (WEIHAI), INC. Subcon-ASE A/T Weihai</t>
-  </si>
-  <si>
-    <t>4516351202_ASEWH</t>
-  </si>
-  <si>
-    <t>Hana Semiconductor (Ayutthaya) Co., Ltd (HNT)</t>
-  </si>
-  <si>
-    <t>4516351202_HNT</t>
-  </si>
-  <si>
-    <t>4910172298</t>
-  </si>
-  <si>
-    <t>JMC Worldwide Inc.</t>
-  </si>
-  <si>
-    <t>ES072525</t>
-  </si>
-  <si>
-    <t>Lingsen Precision Industries Ltd.</t>
-  </si>
-  <si>
-    <t>4516260169</t>
-  </si>
-  <si>
-    <t>Microprecision Calibration Inc.</t>
-  </si>
-  <si>
-    <t>PP25-1057NI</t>
-  </si>
-  <si>
-    <t>PP25-1069NI</t>
-  </si>
-  <si>
-    <t>3T/PO252272</t>
-  </si>
-  <si>
-    <t>ROCHESTER ELECTRONICS</t>
-  </si>
-  <si>
-    <t>252395</t>
-  </si>
-  <si>
-    <t>4020007186</t>
-  </si>
-  <si>
-    <t>STMicroelectronics, Inc.</t>
-  </si>
-  <si>
-    <t>4010016033</t>
-  </si>
-  <si>
-    <t>Texas Instruments DMOS5</t>
-  </si>
-  <si>
-    <t>4516351202_DMOS5</t>
-  </si>
-  <si>
-    <t>TEXAS INSTRUMENTS INCORPORATED</t>
-  </si>
-  <si>
-    <t>4516250020</t>
-  </si>
-  <si>
-    <t>4516317906</t>
-  </si>
-  <si>
-    <t>Texas Instruments Japan Limited MIHO Plant (MIHO 8 FAB)</t>
-  </si>
-  <si>
-    <t>4516351202_MIHO</t>
-  </si>
-  <si>
-    <t>Texas Instruments SFAB</t>
-  </si>
-  <si>
-    <t>4516351202_SFAB</t>
-  </si>
-  <si>
     <t>UTAC Thai Limited ( UTL 3)</t>
   </si>
   <si>
@@ -304,7 +328,7 @@
     <t>4516351202_UTL</t>
   </si>
   <si>
-    <t>Last updated: 2025-08-15 05:17:50</t>
+    <t>Last updated: 2025-08-28 14:06:12</t>
   </si>
 </sst>
 </file>
@@ -649,7 +673,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M41"/>
+  <dimension ref="A1:M43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
@@ -659,7 +683,7 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -711,19 +735,19 @@
         <v>14</v>
       </c>
       <c r="C3">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -732,7 +756,7 @@
         <v>45768</v>
       </c>
       <c r="K3">
-        <v>-116</v>
+        <v>-129</v>
       </c>
       <c r="L3" t="s">
         <v>15</v>
@@ -770,7 +794,7 @@
         <v>45812</v>
       </c>
       <c r="K4">
-        <v>-72</v>
+        <v>-85</v>
       </c>
       <c r="L4" t="s">
         <v>19</v>
@@ -784,162 +808,165 @@
         <v>21</v>
       </c>
       <c r="C5">
-        <v>32</v>
+        <v>136</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>43</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H5">
-        <v>25</v>
+        <v>78</v>
       </c>
       <c r="I5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J5" s="1">
         <v>45882</v>
       </c>
       <c r="K5">
-        <v>-2</v>
+        <v>-15</v>
       </c>
       <c r="L5" t="s">
         <v>22</v>
       </c>
+      <c r="M5" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C6">
-        <v>112</v>
+        <v>81</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="E6">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="F6">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="I6">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="J6" s="1">
         <v>45882</v>
       </c>
       <c r="K6">
-        <v>-2</v>
+        <v>-15</v>
       </c>
       <c r="L6" t="s">
         <v>22</v>
       </c>
       <c r="M6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C7">
-        <v>71</v>
+        <v>2</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H7">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>45882</v>
+        <v>45889</v>
       </c>
       <c r="K7">
-        <v>-2</v>
+        <v>-8</v>
       </c>
       <c r="L7" t="s">
-        <v>22</v>
-      </c>
-      <c r="M7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C8">
-        <v>67</v>
+        <v>90</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="I8">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>45883</v>
+        <v>45895</v>
       </c>
       <c r="K8">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="L8" t="s">
-        <v>31</v>
+        <v>32</v>
+      </c>
+      <c r="M8" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B9" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C9">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="F9">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="H9">
         <v>8</v>
@@ -951,94 +978,100 @@
         <v>45895</v>
       </c>
       <c r="K9">
-        <v>11</v>
+        <v>-2</v>
       </c>
       <c r="L9" t="s">
-        <v>34</v>
+        <v>32</v>
+      </c>
+      <c r="M9" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B10" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C10">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="D10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E10">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>45895</v>
+        <v>45896</v>
       </c>
       <c r="K10">
-        <v>11</v>
+        <v>-1</v>
       </c>
       <c r="L10" t="s">
-        <v>34</v>
+        <v>39</v>
+      </c>
+      <c r="M10" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B11" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C11">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H11">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>45895</v>
+        <v>45909</v>
       </c>
       <c r="K11">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L11" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B12" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C12">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="D12">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -1047,109 +1080,109 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12" s="1">
-        <v>45889</v>
+        <v>45902</v>
       </c>
       <c r="K12">
         <v>5</v>
       </c>
       <c r="L12" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B13" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C13">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13" s="1">
-        <v>45889</v>
+        <v>45898</v>
       </c>
       <c r="K13">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L13" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B14" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="C14">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E14">
         <v>9</v>
       </c>
       <c r="F14">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="H14">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>45889</v>
+        <v>45898</v>
       </c>
       <c r="K14">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L14" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="M14" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="B15" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="C15">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -1158,13 +1191,13 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="J15" s="1">
-        <v>45884</v>
+        <v>45898</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L15" t="s">
         <v>49</v>
@@ -1172,65 +1205,83 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B16" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C16">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H16">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J16" s="1">
+        <v>45898</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B17" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C17">
-        <v>1</v>
+        <v>71</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J17" s="1">
+        <v>45898</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B18" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C18">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -1239,24 +1290,24 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B19" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C19">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -1265,375 +1316,366 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0</v>
-      </c>
-      <c r="G19" t="s">
-        <v>58</v>
+        <v>8</v>
       </c>
       <c r="H19">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="I19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="B20" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" t="s">
+        <v>65</v>
+      </c>
+      <c r="B21" t="s">
+        <v>66</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" t="s">
+        <v>63</v>
+      </c>
+      <c r="B22" t="s">
+        <v>67</v>
+      </c>
+      <c r="C22">
         <v>4</v>
       </c>
-      <c r="D20">
-        <v>0</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-      <c r="F20">
-        <v>0</v>
-      </c>
-      <c r="G20" t="s">
-        <v>58</v>
-      </c>
-      <c r="H20">
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22" t="s">
+        <v>68</v>
+      </c>
+      <c r="H22">
         <v>4</v>
       </c>
-      <c r="I20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" t="s">
-        <v>52</v>
-      </c>
-      <c r="B21" t="s">
-        <v>60</v>
-      </c>
-      <c r="C21">
+      <c r="I22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" t="s">
+        <v>63</v>
+      </c>
+      <c r="B23" t="s">
+        <v>69</v>
+      </c>
+      <c r="C23">
         <v>10</v>
       </c>
-      <c r="D21">
-        <v>0</v>
-      </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-      <c r="F21">
-        <v>0</v>
-      </c>
-      <c r="G21" t="s">
-        <v>58</v>
-      </c>
-      <c r="H21">
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23" t="s">
+        <v>68</v>
+      </c>
+      <c r="H23">
         <v>10</v>
       </c>
-      <c r="I21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" t="s">
-        <v>52</v>
-      </c>
-      <c r="B22" t="s">
-        <v>61</v>
-      </c>
-      <c r="C22">
-        <v>1</v>
-      </c>
-      <c r="D22">
-        <v>0</v>
-      </c>
-      <c r="E22">
-        <v>0</v>
-      </c>
-      <c r="F22">
-        <v>0</v>
-      </c>
-      <c r="G22" t="s">
-        <v>58</v>
-      </c>
-      <c r="H22">
-        <v>1</v>
-      </c>
-      <c r="I22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" t="s">
-        <v>52</v>
-      </c>
-      <c r="B23" t="s">
-        <v>62</v>
-      </c>
-      <c r="C23">
-        <v>1</v>
-      </c>
-      <c r="D23">
-        <v>0</v>
-      </c>
-      <c r="E23">
-        <v>0</v>
-      </c>
-      <c r="F23">
-        <v>0</v>
-      </c>
-      <c r="G23" t="s">
-        <v>58</v>
-      </c>
-      <c r="H23">
-        <v>1</v>
-      </c>
       <c r="I23">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
         <v>63</v>
       </c>
       <c r="B24" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24" t="s">
+        <v>68</v>
+      </c>
+      <c r="H24">
+        <v>1</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" t="s">
+        <v>63</v>
+      </c>
+      <c r="B25" t="s">
+        <v>71</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25" t="s">
+        <v>68</v>
+      </c>
+      <c r="H25">
+        <v>1</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" t="s">
+        <v>63</v>
+      </c>
+      <c r="B26" t="s">
+        <v>72</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26" t="s">
+        <v>68</v>
+      </c>
+      <c r="H26">
+        <v>1</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" t="s">
+        <v>73</v>
+      </c>
+      <c r="B27" t="s">
+        <v>74</v>
+      </c>
+      <c r="C27">
         <v>14</v>
       </c>
-      <c r="D24">
-        <v>0</v>
-      </c>
-      <c r="E24">
-        <v>0</v>
-      </c>
-      <c r="F24">
-        <v>0</v>
-      </c>
-      <c r="G24" t="s">
-        <v>58</v>
-      </c>
-      <c r="H24">
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27" t="s">
+        <v>68</v>
+      </c>
+      <c r="H27">
         <v>14</v>
       </c>
-      <c r="I24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" t="s">
-        <v>65</v>
-      </c>
-      <c r="B25" t="s">
-        <v>66</v>
-      </c>
-      <c r="C25">
-        <v>12</v>
-      </c>
-      <c r="D25">
-        <v>0</v>
-      </c>
-      <c r="E25">
-        <v>0</v>
-      </c>
-      <c r="F25">
-        <v>0</v>
-      </c>
-      <c r="G25" t="s">
-        <v>58</v>
-      </c>
-      <c r="H25">
-        <v>12</v>
-      </c>
-      <c r="I25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" t="s">
-        <v>65</v>
-      </c>
-      <c r="B26" t="s">
-        <v>67</v>
-      </c>
-      <c r="C26">
+      <c r="I27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" t="s">
+        <v>73</v>
+      </c>
+      <c r="B28" t="s">
+        <v>75</v>
+      </c>
+      <c r="C28">
         <v>8</v>
       </c>
-      <c r="D26">
-        <v>0</v>
-      </c>
-      <c r="E26">
-        <v>0</v>
-      </c>
-      <c r="F26">
-        <v>0</v>
-      </c>
-      <c r="G26" t="s">
-        <v>58</v>
-      </c>
-      <c r="H26">
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28" t="s">
+        <v>68</v>
+      </c>
+      <c r="H28">
         <v>8</v>
       </c>
-      <c r="I26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" t="s">
-        <v>68</v>
-      </c>
-      <c r="B27" t="s">
-        <v>69</v>
-      </c>
-      <c r="C27">
+      <c r="I28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" t="s">
+        <v>76</v>
+      </c>
+      <c r="B29" t="s">
+        <v>77</v>
+      </c>
+      <c r="C29">
         <v>2</v>
       </c>
-      <c r="D27">
-        <v>0</v>
-      </c>
-      <c r="E27">
-        <v>0</v>
-      </c>
-      <c r="F27">
-        <v>0</v>
-      </c>
-      <c r="G27" t="s">
-        <v>58</v>
-      </c>
-      <c r="H27">
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29" t="s">
+        <v>68</v>
+      </c>
+      <c r="H29">
         <v>2</v>
       </c>
-      <c r="I27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" t="s">
-        <v>70</v>
-      </c>
-      <c r="B28" t="s">
-        <v>71</v>
-      </c>
-      <c r="C28">
-        <v>10</v>
-      </c>
-      <c r="D28">
-        <v>0</v>
-      </c>
-      <c r="E28">
-        <v>0</v>
-      </c>
-      <c r="F28">
-        <v>0</v>
-      </c>
-      <c r="G28" t="s">
-        <v>58</v>
-      </c>
-      <c r="H28">
-        <v>10</v>
-      </c>
-      <c r="I28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" t="s">
-        <v>72</v>
-      </c>
-      <c r="B29" t="s">
-        <v>73</v>
-      </c>
-      <c r="C29">
+      <c r="I29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" t="s">
+        <v>78</v>
+      </c>
+      <c r="B30" t="s">
+        <v>79</v>
+      </c>
+      <c r="C30">
+        <v>14</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30" t="s">
+        <v>68</v>
+      </c>
+      <c r="H30">
+        <v>14</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" t="s">
+        <v>80</v>
+      </c>
+      <c r="B31" t="s">
+        <v>81</v>
+      </c>
+      <c r="C31">
         <v>3</v>
       </c>
-      <c r="D29">
-        <v>0</v>
-      </c>
-      <c r="E29">
-        <v>0</v>
-      </c>
-      <c r="F29">
-        <v>0</v>
-      </c>
-      <c r="G29" t="s">
-        <v>58</v>
-      </c>
-      <c r="H29">
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31" t="s">
+        <v>68</v>
+      </c>
+      <c r="H31">
         <v>3</v>
       </c>
-      <c r="I29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" t="s">
-        <v>72</v>
-      </c>
-      <c r="B30" t="s">
-        <v>74</v>
-      </c>
-      <c r="C30">
-        <v>1</v>
-      </c>
-      <c r="D30">
-        <v>0</v>
-      </c>
-      <c r="E30">
-        <v>0</v>
-      </c>
-      <c r="F30">
-        <v>0</v>
-      </c>
-      <c r="G30" t="s">
-        <v>58</v>
-      </c>
-      <c r="H30">
-        <v>1</v>
-      </c>
-      <c r="I30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" t="s">
-        <v>13</v>
-      </c>
-      <c r="B31" t="s">
-        <v>75</v>
-      </c>
-      <c r="C31">
-        <v>1</v>
-      </c>
-      <c r="D31">
-        <v>0</v>
-      </c>
-      <c r="E31">
-        <v>0</v>
-      </c>
-      <c r="F31">
-        <v>0</v>
-      </c>
-      <c r="G31" t="s">
-        <v>58</v>
-      </c>
-      <c r="H31">
-        <v>1</v>
-      </c>
       <c r="I31">
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B32" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="C32">
-        <v>59</v>
+        <v>1</v>
       </c>
       <c r="D32">
         <v>0</v>
@@ -1645,10 +1687,10 @@
         <v>0</v>
       </c>
       <c r="G32" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="H32">
-        <v>59</v>
+        <v>1</v>
       </c>
       <c r="I32">
         <v>0</v>
@@ -1656,13 +1698,13 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="B33" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="C33">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D33">
         <v>0</v>
@@ -1674,10 +1716,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="H33">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="I33">
         <v>0</v>
@@ -1685,13 +1727,13 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B34" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C34">
-        <v>1</v>
+        <v>59</v>
       </c>
       <c r="D34">
         <v>0</v>
@@ -1703,10 +1745,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="H34">
-        <v>1</v>
+        <v>59</v>
       </c>
       <c r="I34">
         <v>0</v>
@@ -1714,13 +1756,13 @@
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B35" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="C35">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D35">
         <v>0</v>
@@ -1732,10 +1774,10 @@
         <v>0</v>
       </c>
       <c r="G35" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="I35">
         <v>0</v>
@@ -1743,13 +1785,13 @@
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B36" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C36">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D36">
         <v>0</v>
@@ -1761,10 +1803,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I36">
         <v>0</v>
@@ -1772,13 +1814,13 @@
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="B37" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="C37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D37">
         <v>0</v>
@@ -1790,10 +1832,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I37">
         <v>0</v>
@@ -1801,13 +1843,13 @@
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B38" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="C38">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="D38">
         <v>0</v>
@@ -1819,10 +1861,10 @@
         <v>0</v>
       </c>
       <c r="G38" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="H38">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="I38">
         <v>0</v>
@@ -1830,13 +1872,13 @@
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B39" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="C39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D39">
         <v>0</v>
@@ -1848,10 +1890,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="H39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I39">
         <v>0</v>
@@ -1859,13 +1901,13 @@
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B40" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C40">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D40">
         <v>0</v>
@@ -1877,10 +1919,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="H40">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I40">
         <v>0</v>
@@ -1888,13 +1930,13 @@
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="B41" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="C41">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="D41">
         <v>0</v>
@@ -1906,12 +1948,70 @@
         <v>0</v>
       </c>
       <c r="G41" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="H41">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="I41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A42" t="s">
+        <v>98</v>
+      </c>
+      <c r="B42" t="s">
+        <v>99</v>
+      </c>
+      <c r="C42">
+        <v>1</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42" t="s">
+        <v>68</v>
+      </c>
+      <c r="H42">
+        <v>1</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A43" t="s">
+        <v>98</v>
+      </c>
+      <c r="B43" t="s">
+        <v>100</v>
+      </c>
+      <c r="C43">
+        <v>1</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="G43" t="s">
+        <v>68</v>
+      </c>
+      <c r="H43">
+        <v>1</v>
+      </c>
+      <c r="I43">
         <v>0</v>
       </c>
     </row>

--- a/po-status.xlsx
+++ b/po-status.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\esolon\OneDrive - Boston Semi Equipment LLC\Github Projects\PO_Status\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE1471A8-46A1-478E-81AB-10643EF8E118}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A316270B-EDC0-4008-8E59-BE87B3DCFCD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,14 +16,14 @@
     <sheet name="PO_StatusQry" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="PO_StatusQry">PO_StatusQry!$A$2:$M$43</definedName>
+    <definedName name="PO_StatusQry">PO_StatusQry!$A$2:$M$54</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="116">
   <si>
     <t>CustName</t>
   </si>
@@ -67,13 +67,139 @@
     <t>NXP Malaysia Sdn. Bhd.</t>
   </si>
   <si>
-    <t>TBA</t>
-  </si>
-  <si>
-    <t>OverDue by 129 days</t>
-  </si>
-  <si>
-    <t>Varies (2025-04-21 → 2025-08-04)</t>
+    <t>TBA_NXP</t>
+  </si>
+  <si>
+    <t>OverDue by 177 days</t>
+  </si>
+  <si>
+    <t>Varies (2025-04-21 → 2025-10-31)</t>
+  </si>
+  <si>
+    <t>ASE (WEIHAI), INC. Subcon-ASE A/T Weihai</t>
+  </si>
+  <si>
+    <t>4516351202_ASEWH</t>
+  </si>
+  <si>
+    <t>OverDue by 47 days</t>
+  </si>
+  <si>
+    <t>Texas Instruments SCT</t>
+  </si>
+  <si>
+    <t>4516351202_SCT</t>
+  </si>
+  <si>
+    <t>Varies (2025-08-29 → 2025-10-21)</t>
+  </si>
+  <si>
+    <t>Texas Instruments Taiwan</t>
+  </si>
+  <si>
+    <t>4516351202_TITL</t>
+  </si>
+  <si>
+    <t>TI (Philippines) Inc.</t>
+  </si>
+  <si>
+    <t>4516351202_TIPI</t>
+  </si>
+  <si>
+    <t>Varies (2025-08-29 → 2025-10-22)</t>
+  </si>
+  <si>
+    <t>TI Philippines, Inc - Clark</t>
+  </si>
+  <si>
+    <t>4516351202_TICL-PR</t>
+  </si>
+  <si>
+    <t>Lingsen Precision Industries</t>
+  </si>
+  <si>
+    <t>4516260169</t>
+  </si>
+  <si>
+    <t>OverDue by 26 days</t>
+  </si>
+  <si>
+    <t>Texas Instruments Japan Limited MIHO Plant (MIHO 8 FAB)</t>
+  </si>
+  <si>
+    <t>4516351202_MIHO</t>
+  </si>
+  <si>
+    <t>OverDue by 19 days</t>
+  </si>
+  <si>
+    <t>TI Philippines, Inc - Clark FT</t>
+  </si>
+  <si>
+    <t>4516351202_TICL-FT</t>
+  </si>
+  <si>
+    <t>OverDue by 16 days</t>
+  </si>
+  <si>
+    <t>Varies (2025-09-29 → 2025-10-22)</t>
+  </si>
+  <si>
+    <t>Analog Devices Gen. Trias Inc. (ADGT)</t>
+  </si>
+  <si>
+    <t>47264622</t>
+  </si>
+  <si>
+    <t>OverDue by 5 days</t>
+  </si>
+  <si>
+    <t>47270551</t>
+  </si>
+  <si>
+    <t>16 days before Due</t>
+  </si>
+  <si>
+    <t>STMicroelectronics, Inc.</t>
+  </si>
+  <si>
+    <t>4010016949</t>
+  </si>
+  <si>
+    <t>12 days before Due</t>
+  </si>
+  <si>
+    <t>Texas Instruments AIZU</t>
+  </si>
+  <si>
+    <t>4516351202_AIZU</t>
+  </si>
+  <si>
+    <t>9 days before Due</t>
+  </si>
+  <si>
+    <t>47188646</t>
+  </si>
+  <si>
+    <t>7 days before Due</t>
+  </si>
+  <si>
+    <t>Texas Instruments Japan Limited (MIHO-ENG)</t>
+  </si>
+  <si>
+    <t>4516351202_MIHO-ENG</t>
+  </si>
+  <si>
+    <t>6 days before Due</t>
+  </si>
+  <si>
+    <t>TEXAS INSTRUMENTS (INDIA) Pvt. Ltd</t>
+  </si>
+  <si>
+    <t>4516351202_TII</t>
+  </si>
+  <si>
+    <t>2 days before Due</t>
   </si>
   <si>
     <t>Texas Instruments Taiwan Limited</t>
@@ -82,70 +208,145 @@
     <t>4910171717</t>
   </si>
   <si>
-    <t>OverDue by 85 days</t>
-  </si>
-  <si>
-    <t>TI (Philippines) Inc.</t>
-  </si>
-  <si>
-    <t>4516351202_TIPI</t>
-  </si>
-  <si>
-    <t>OverDue by 15 days</t>
-  </si>
-  <si>
-    <t>Varies (2025-08-13 → 2025-08-29)</t>
-  </si>
-  <si>
-    <t>TI Philippines, Inc - Clark FT</t>
-  </si>
-  <si>
-    <t>4516351202_TICL-FT</t>
-  </si>
-  <si>
-    <t>Varies (2025-08-13 → 2025-09-09)</t>
+    <t>1 days before Due</t>
+  </si>
+  <si>
+    <t>TEXAS INSTRUMENTS  MALAYSIA</t>
+  </si>
+  <si>
+    <t>Global PO 4516351202</t>
+  </si>
+  <si>
+    <t>47225672</t>
+  </si>
+  <si>
+    <t>47274630</t>
+  </si>
+  <si>
+    <t>ANALOG DEVICES INC. CAMIAS</t>
+  </si>
+  <si>
+    <t>47259467</t>
+  </si>
+  <si>
+    <t>4010017076</t>
+  </si>
+  <si>
+    <t>Texas Instruments LFAB</t>
+  </si>
+  <si>
+    <t>4516351202_LFAB</t>
+  </si>
+  <si>
+    <t>4010017128</t>
+  </si>
+  <si>
+    <t>Completed PO</t>
+  </si>
+  <si>
+    <t>47218149</t>
+  </si>
+  <si>
+    <t>47245848</t>
+  </si>
+  <si>
+    <t>47245933</t>
+  </si>
+  <si>
+    <t>47253728</t>
+  </si>
+  <si>
+    <t>ARDENTEC CORPORATION</t>
+  </si>
+  <si>
+    <t>4516351202_ARD</t>
+  </si>
+  <si>
+    <t>Ardentec Korea Co., Ltd.</t>
+  </si>
+  <si>
+    <t>4516351202_ATK</t>
+  </si>
+  <si>
+    <t>Hana Semiconductor (Ayutthaya) Co., Ltd (HNT)</t>
+  </si>
+  <si>
+    <t>4516351202_HNT</t>
+  </si>
+  <si>
+    <t>4910172298</t>
+  </si>
+  <si>
+    <t>JMC Worldwide Inc.</t>
+  </si>
+  <si>
+    <t>ES072525</t>
+  </si>
+  <si>
+    <t>LPI-2507174</t>
+  </si>
+  <si>
+    <t>Microprecision Calibration Inc.</t>
+  </si>
+  <si>
+    <t>PP25-1057NI</t>
+  </si>
+  <si>
+    <t>PP25-1069NI</t>
+  </si>
+  <si>
+    <t>3T/PO252272</t>
+  </si>
+  <si>
+    <t>ROCHESTER ELECTRONICS</t>
+  </si>
+  <si>
+    <t>252395</t>
+  </si>
+  <si>
+    <t>ST Microelectronics Pte Ltd.</t>
+  </si>
+  <si>
+    <t>4020007186</t>
+  </si>
+  <si>
+    <t>4020007647</t>
+  </si>
+  <si>
+    <t>3030012690</t>
+  </si>
+  <si>
+    <t>4010016033</t>
+  </si>
+  <si>
+    <t>FOR TROUBLE SHOOT</t>
   </si>
   <si>
     <t>Swindon Silicon System</t>
   </si>
   <si>
-    <t>TBD</t>
-  </si>
-  <si>
-    <t>OverDue by 8 days</t>
-  </si>
-  <si>
-    <t>Texas Instruments Taiwan</t>
-  </si>
-  <si>
-    <t>4516351202_TITL</t>
-  </si>
-  <si>
-    <t>OverDue by 2 days</t>
-  </si>
-  <si>
-    <t>Varies (2025-08-26 → 2025-09-10)</t>
-  </si>
-  <si>
-    <t>TI Philippines, Inc - Clark</t>
-  </si>
-  <si>
-    <t>4516351202_TICL-PR</t>
-  </si>
-  <si>
-    <t>Varies (2025-08-26 → 2025-08-29)</t>
-  </si>
-  <si>
-    <t>ARDENTEC CORPORATION</t>
-  </si>
-  <si>
-    <t>4516351202_ARD</t>
-  </si>
-  <si>
-    <t>OverDue by 1 days</t>
-  </si>
-  <si>
-    <t>Varies (2025-08-27 → 2025-08-29)</t>
+    <t>BSE-58645</t>
+  </si>
+  <si>
+    <t>Texas Instruments DMOS5</t>
+  </si>
+  <si>
+    <t>4516351202_DMOS5</t>
+  </si>
+  <si>
+    <t>Texas Instruments FTLABS</t>
+  </si>
+  <si>
+    <t>4516351202_FTLABS</t>
+  </si>
+  <si>
+    <t>TEXAS INSTRUMENTS INCORPORATED</t>
+  </si>
+  <si>
+    <t>4516250020</t>
+  </si>
+  <si>
+    <t>4516317906</t>
   </si>
   <si>
     <t>Texas Instruments SFAB</t>
@@ -154,165 +355,6 @@
     <t>4516351202_SFAB</t>
   </si>
   <si>
-    <t>12 days before Due</t>
-  </si>
-  <si>
-    <t>Ardentec Korea Co., Ltd.</t>
-  </si>
-  <si>
-    <t>4516351202_ATK</t>
-  </si>
-  <si>
-    <t>5 days before Due</t>
-  </si>
-  <si>
-    <t>ASE (WEIHAI), INC. Subcon-ASE A/T Weihai</t>
-  </si>
-  <si>
-    <t>4516351202_ASEWH</t>
-  </si>
-  <si>
-    <t>1 days before Due</t>
-  </si>
-  <si>
-    <t>TEXAS INSTRUMENTS  MALAYSIA</t>
-  </si>
-  <si>
-    <t>Global PO 4516351202</t>
-  </si>
-  <si>
-    <t>Varies (2025-08-29 → 2025-09-11)</t>
-  </si>
-  <si>
-    <t>Texas Instruments FTLABS</t>
-  </si>
-  <si>
-    <t>4516351202_FTLABS</t>
-  </si>
-  <si>
-    <t>Texas Instruments Japan Limited MIHO Plant (MIHO 8 FAB)</t>
-  </si>
-  <si>
-    <t>4516351202_MIHO</t>
-  </si>
-  <si>
-    <t>Texas Instruments SCT</t>
-  </si>
-  <si>
-    <t>4516351202_SCT</t>
-  </si>
-  <si>
-    <t>TEXAS INSTRUMENTS (INDIA) Pvt. Ltd</t>
-  </si>
-  <si>
-    <t>4516351202_TII</t>
-  </si>
-  <si>
-    <t>Texas Instruments DMOS5</t>
-  </si>
-  <si>
-    <t>4516351202_DMOS5</t>
-  </si>
-  <si>
-    <t>Analog Devices Gen. Trias Inc. (ADGT)</t>
-  </si>
-  <si>
-    <t>47225672</t>
-  </si>
-  <si>
-    <t>Texas Instruments LFAB</t>
-  </si>
-  <si>
-    <t>4516351202_LFAB</t>
-  </si>
-  <si>
-    <t>47188646</t>
-  </si>
-  <si>
-    <t>Completed PO</t>
-  </si>
-  <si>
-    <t>47218149</t>
-  </si>
-  <si>
-    <t>47245848</t>
-  </si>
-  <si>
-    <t>47245933</t>
-  </si>
-  <si>
-    <t>47253728</t>
-  </si>
-  <si>
-    <t>Hana Semiconductor (Ayutthaya) Co., Ltd (HNT)</t>
-  </si>
-  <si>
-    <t>4516351202_HNT</t>
-  </si>
-  <si>
-    <t>4910172298</t>
-  </si>
-  <si>
-    <t>JMC Worldwide Inc.</t>
-  </si>
-  <si>
-    <t>ES072525</t>
-  </si>
-  <si>
-    <t>Lingsen Precision Industries Ltd.</t>
-  </si>
-  <si>
-    <t>4516260169</t>
-  </si>
-  <si>
-    <t>Microprecision Calibration Inc.</t>
-  </si>
-  <si>
-    <t>PP25-1057NI</t>
-  </si>
-  <si>
-    <t>PP25-1069NI</t>
-  </si>
-  <si>
-    <t>3T/PO252272</t>
-  </si>
-  <si>
-    <t>ROCHESTER ELECTRONICS</t>
-  </si>
-  <si>
-    <t>252395</t>
-  </si>
-  <si>
-    <t>ST Microelectronics Pte Ltd.</t>
-  </si>
-  <si>
-    <t>4020007186</t>
-  </si>
-  <si>
-    <t>4020007647</t>
-  </si>
-  <si>
-    <t>STMicroelectronics, Inc.</t>
-  </si>
-  <si>
-    <t>4010016033</t>
-  </si>
-  <si>
-    <t>Texas Instruments AIZU</t>
-  </si>
-  <si>
-    <t>4516351202_AIZU</t>
-  </si>
-  <si>
-    <t>TEXAS INSTRUMENTS INCORPORATED</t>
-  </si>
-  <si>
-    <t>4516250020</t>
-  </si>
-  <si>
-    <t>4516317906</t>
-  </si>
-  <si>
     <t>Tongfu Microelectronics Co.,Ltd.</t>
   </si>
   <si>
@@ -328,7 +370,7 @@
     <t>4516351202_UTL</t>
   </si>
   <si>
-    <t>Last updated: 2025-08-28 14:06:12</t>
+    <t>Last updated: 2025-10-15 08:53:21</t>
   </si>
 </sst>
 </file>
@@ -673,7 +715,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M43"/>
+  <dimension ref="A1:M54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
@@ -683,7 +725,7 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -735,7 +777,7 @@
         <v>14</v>
       </c>
       <c r="C3">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -747,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -756,7 +798,7 @@
         <v>45768</v>
       </c>
       <c r="K3">
-        <v>-129</v>
+        <v>-177</v>
       </c>
       <c r="L3" t="s">
         <v>15</v>
@@ -773,28 +815,28 @@
         <v>18</v>
       </c>
       <c r="C4">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>45812</v>
+        <v>45898</v>
       </c>
       <c r="K4">
-        <v>-85</v>
+        <v>-47</v>
       </c>
       <c r="L4" t="s">
         <v>19</v>
@@ -808,267 +850,264 @@
         <v>21</v>
       </c>
       <c r="C5">
-        <v>136</v>
+        <v>118</v>
       </c>
       <c r="D5">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="F5">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>78</v>
+        <v>103</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>45882</v>
+        <v>45898</v>
       </c>
       <c r="K5">
-        <v>-15</v>
+        <v>-47</v>
       </c>
       <c r="L5" t="s">
+        <v>19</v>
+      </c>
+      <c r="M5" t="s">
         <v>22</v>
-      </c>
-      <c r="M5" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" t="s">
         <v>24</v>
       </c>
-      <c r="B6" t="s">
-        <v>25</v>
-      </c>
       <c r="C6">
-        <v>81</v>
+        <v>143</v>
       </c>
       <c r="D6">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H6">
-        <v>46</v>
+        <v>133</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>45882</v>
+        <v>45898</v>
       </c>
       <c r="K6">
-        <v>-15</v>
+        <v>-47</v>
       </c>
       <c r="L6" t="s">
+        <v>19</v>
+      </c>
+      <c r="M6" t="s">
         <v>22</v>
-      </c>
-      <c r="M6" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7">
+        <v>236</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>16</v>
+      </c>
+      <c r="F7">
+        <v>10</v>
+      </c>
+      <c r="H7">
+        <v>195</v>
+      </c>
+      <c r="I7">
+        <v>15</v>
+      </c>
+      <c r="J7" s="1">
+        <v>45898</v>
+      </c>
+      <c r="K7">
+        <v>-47</v>
+      </c>
+      <c r="L7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M7" t="s">
         <v>27</v>
-      </c>
-      <c r="B7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7">
-        <v>2</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>2</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7" s="1">
-        <v>45889</v>
-      </c>
-      <c r="K7">
-        <v>-8</v>
-      </c>
-      <c r="L7" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C8">
-        <v>90</v>
+        <v>24</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H8">
-        <v>72</v>
+        <v>19</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>45895</v>
+        <v>45898</v>
       </c>
       <c r="K8">
-        <v>-2</v>
+        <v>-47</v>
       </c>
       <c r="L8" t="s">
-        <v>32</v>
-      </c>
-      <c r="M8" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B9" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C9">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H9">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>45895</v>
+        <v>45919</v>
       </c>
       <c r="K9">
-        <v>-2</v>
+        <v>-26</v>
       </c>
       <c r="L9" t="s">
         <v>32</v>
       </c>
-      <c r="M9" t="s">
-        <v>36</v>
-      </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B10" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C10">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E10">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>45896</v>
+        <v>45926</v>
       </c>
       <c r="K10">
-        <v>-1</v>
+        <v>-19</v>
       </c>
       <c r="L10" t="s">
-        <v>39</v>
-      </c>
-      <c r="M10" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B11" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C11">
-        <v>4</v>
+        <v>111</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>95</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>45909</v>
+        <v>45929</v>
       </c>
       <c r="K11">
-        <v>12</v>
+        <v>-16</v>
       </c>
       <c r="L11" t="s">
-        <v>43</v>
+        <v>38</v>
+      </c>
+      <c r="M11" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B12" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C12">
-        <v>33</v>
+        <v>1</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -1080,106 +1119,103 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12" s="1">
-        <v>45902</v>
+        <v>45940</v>
       </c>
       <c r="K12">
-        <v>5</v>
+        <v>-5</v>
       </c>
       <c r="L12" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="B13" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C13">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13" s="1">
+        <v>45961</v>
+      </c>
+      <c r="K13">
         <v>16</v>
       </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-      <c r="J13" s="1">
-        <v>45898</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
       <c r="L13" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B14" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C14">
-        <v>57</v>
+        <v>1</v>
       </c>
       <c r="D14">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E14">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>45898</v>
+        <v>45957</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="L14" t="s">
-        <v>49</v>
-      </c>
-      <c r="M14" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B15" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C15">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -1188,109 +1224,109 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15" s="1">
-        <v>45898</v>
+        <v>45954</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="L15" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="B16" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C16">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>41</v>
+        <v>4</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16" s="1">
-        <v>45898</v>
+        <v>45952</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="L16" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B17" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C17">
-        <v>71</v>
+        <v>6</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>67</v>
+        <v>3</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17" s="1">
-        <v>45898</v>
+        <v>45951</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="L17" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B18" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C18">
         <v>28</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F18">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="H18">
         <v>14</v>
@@ -1298,42 +1334,60 @@
       <c r="I18">
         <v>0</v>
       </c>
+      <c r="J18" s="1">
+        <v>45947</v>
+      </c>
+      <c r="K18">
+        <v>2</v>
+      </c>
+      <c r="L18" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
+        <v>59</v>
+      </c>
+      <c r="B19" t="s">
+        <v>60</v>
+      </c>
+      <c r="C19">
+        <v>12</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>10</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19" s="1">
+        <v>45946</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19" t="s">
         <v>61</v>
-      </c>
-      <c r="B19" t="s">
-        <v>62</v>
-      </c>
-      <c r="C19">
-        <v>10</v>
-      </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19">
-        <v>8</v>
-      </c>
-      <c r="H19">
-        <v>2</v>
-      </c>
-      <c r="I19">
-        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
+        <v>62</v>
+      </c>
+      <c r="B20" t="s">
         <v>63</v>
       </c>
-      <c r="B20" t="s">
-        <v>64</v>
-      </c>
       <c r="C20">
-        <v>1</v>
+        <v>93</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -1342,21 +1396,21 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="B21" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -1379,13 +1433,13 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="B22" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C22">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -1394,13 +1448,10 @@
         <v>0</v>
       </c>
       <c r="F22">
-        <v>0</v>
-      </c>
-      <c r="G22" t="s">
-        <v>68</v>
+        <v>1</v>
       </c>
       <c r="H22">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1408,13 +1459,13 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B23" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C23">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -1423,13 +1474,10 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>0</v>
-      </c>
-      <c r="G23" t="s">
-        <v>68</v>
+        <v>1</v>
       </c>
       <c r="H23">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1437,10 +1485,10 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="B24" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -1452,13 +1500,10 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0</v>
-      </c>
-      <c r="G24" t="s">
-        <v>68</v>
+        <v>1</v>
       </c>
       <c r="H24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1466,10 +1511,10 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="B25" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C25">
         <v>1</v>
@@ -1481,13 +1526,10 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0</v>
-      </c>
-      <c r="G25" t="s">
-        <v>68</v>
+        <v>1</v>
       </c>
       <c r="H25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1495,10 +1537,10 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="B26" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C26">
         <v>1</v>
@@ -1513,24 +1555,24 @@
         <v>0</v>
       </c>
       <c r="G26" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="H26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" t="s">
+        <v>40</v>
+      </c>
+      <c r="B27" t="s">
         <v>73</v>
       </c>
-      <c r="B27" t="s">
-        <v>74</v>
-      </c>
       <c r="C27">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D27">
         <v>0</v>
@@ -1542,10 +1584,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="H27">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="I27">
         <v>0</v>
@@ -1553,13 +1595,13 @@
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" t="s">
-        <v>73</v>
+        <v>40</v>
       </c>
       <c r="B28" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C28">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -1571,10 +1613,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="H28">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="I28">
         <v>0</v>
@@ -1582,13 +1624,13 @@
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" t="s">
-        <v>76</v>
+        <v>40</v>
       </c>
       <c r="B29" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -1600,10 +1642,10 @@
         <v>0</v>
       </c>
       <c r="G29" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I29">
         <v>0</v>
@@ -1611,13 +1653,13 @@
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" t="s">
-        <v>78</v>
+        <v>40</v>
       </c>
       <c r="B30" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C30">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D30">
         <v>0</v>
@@ -1629,10 +1671,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="H30">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="I30">
         <v>0</v>
@@ -1640,13 +1682,13 @@
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B31" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C31">
-        <v>3</v>
+        <v>54</v>
       </c>
       <c r="D31">
         <v>0</v>
@@ -1658,10 +1700,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="H31">
-        <v>3</v>
+        <v>54</v>
       </c>
       <c r="I31">
         <v>0</v>
@@ -1669,13 +1711,13 @@
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" t="s">
+        <v>79</v>
+      </c>
+      <c r="B32" t="s">
         <v>80</v>
       </c>
-      <c r="B32" t="s">
-        <v>82</v>
-      </c>
       <c r="C32">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="D32">
         <v>0</v>
@@ -1687,10 +1729,10 @@
         <v>0</v>
       </c>
       <c r="G32" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="H32">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="I32">
         <v>0</v>
@@ -1698,13 +1740,13 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" t="s">
-        <v>13</v>
+        <v>81</v>
       </c>
       <c r="B33" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C33">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="D33">
         <v>0</v>
@@ -1716,10 +1758,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="H33">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="I33">
         <v>0</v>
@@ -1727,13 +1769,13 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B34" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C34">
-        <v>59</v>
+        <v>8</v>
       </c>
       <c r="D34">
         <v>0</v>
@@ -1745,10 +1787,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="H34">
-        <v>59</v>
+        <v>8</v>
       </c>
       <c r="I34">
         <v>0</v>
@@ -1756,13 +1798,13 @@
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B35" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C35">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D35">
         <v>0</v>
@@ -1774,10 +1816,10 @@
         <v>0</v>
       </c>
       <c r="G35" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="H35">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="I35">
         <v>0</v>
@@ -1785,13 +1827,13 @@
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" t="s">
+        <v>30</v>
+      </c>
+      <c r="B36" t="s">
         <v>86</v>
       </c>
-      <c r="B36" t="s">
-        <v>88</v>
-      </c>
       <c r="C36">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D36">
         <v>0</v>
@@ -1803,10 +1845,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="H36">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I36">
         <v>0</v>
@@ -1814,13 +1856,13 @@
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B37" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D37">
         <v>0</v>
@@ -1832,10 +1874,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="H37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I37">
         <v>0</v>
@@ -1843,13 +1885,13 @@
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B38" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C38">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="D38">
         <v>0</v>
@@ -1861,10 +1903,10 @@
         <v>0</v>
       </c>
       <c r="G38" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="H38">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="I38">
         <v>0</v>
@@ -1872,13 +1914,13 @@
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" t="s">
-        <v>93</v>
+        <v>13</v>
       </c>
       <c r="B39" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D39">
         <v>0</v>
@@ -1890,10 +1932,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I39">
         <v>0</v>
@@ -1901,13 +1943,13 @@
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B40" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C40">
-        <v>2</v>
+        <v>59</v>
       </c>
       <c r="D40">
         <v>0</v>
@@ -1919,10 +1961,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>59</v>
       </c>
       <c r="I40">
         <v>0</v>
@@ -1930,13 +1972,13 @@
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B41" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C41">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D41">
         <v>0</v>
@@ -1948,10 +1990,10 @@
         <v>0</v>
       </c>
       <c r="G41" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="H41">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I41">
         <v>0</v>
@@ -1959,13 +2001,13 @@
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B42" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C42">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D42">
         <v>0</v>
@@ -1977,10 +2019,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="H42">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I42">
         <v>0</v>
@@ -1988,30 +2030,349 @@
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" t="s">
+        <v>45</v>
+      </c>
+      <c r="B43" t="s">
+        <v>96</v>
+      </c>
+      <c r="C43">
+        <v>20</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="G43" t="s">
+        <v>72</v>
+      </c>
+      <c r="H43">
+        <v>20</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A44" t="s">
+        <v>45</v>
+      </c>
+      <c r="B44" t="s">
+        <v>97</v>
+      </c>
+      <c r="C44">
+        <v>1</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="G44" t="s">
+        <v>72</v>
+      </c>
+      <c r="H44">
+        <v>1</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A45" t="s">
+        <v>45</v>
+      </c>
+      <c r="B45" t="s">
         <v>98</v>
       </c>
-      <c r="B43" t="s">
+      <c r="C45">
+        <v>1</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45" t="s">
+        <v>72</v>
+      </c>
+      <c r="H45">
+        <v>1</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A46" t="s">
+        <v>99</v>
+      </c>
+      <c r="B46" t="s">
         <v>100</v>
       </c>
-      <c r="C43">
-        <v>1</v>
-      </c>
-      <c r="D43">
-        <v>0</v>
-      </c>
-      <c r="E43">
-        <v>0</v>
-      </c>
-      <c r="F43">
-        <v>0</v>
-      </c>
-      <c r="G43" t="s">
-        <v>68</v>
-      </c>
-      <c r="H43">
-        <v>1</v>
-      </c>
-      <c r="I43">
+      <c r="C46">
+        <v>2</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="G46" t="s">
+        <v>72</v>
+      </c>
+      <c r="H46">
+        <v>2</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A47" t="s">
+        <v>101</v>
+      </c>
+      <c r="B47" t="s">
+        <v>102</v>
+      </c>
+      <c r="C47">
+        <v>10</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+      <c r="G47" t="s">
+        <v>72</v>
+      </c>
+      <c r="H47">
+        <v>10</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A48" t="s">
+        <v>103</v>
+      </c>
+      <c r="B48" t="s">
+        <v>104</v>
+      </c>
+      <c r="C48">
+        <v>1</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+      <c r="G48" t="s">
+        <v>72</v>
+      </c>
+      <c r="H48">
+        <v>1</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A49" t="s">
+        <v>105</v>
+      </c>
+      <c r="B49" t="s">
+        <v>106</v>
+      </c>
+      <c r="C49">
+        <v>2</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49" t="s">
+        <v>72</v>
+      </c>
+      <c r="H49">
+        <v>2</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A50" t="s">
+        <v>105</v>
+      </c>
+      <c r="B50" t="s">
+        <v>107</v>
+      </c>
+      <c r="C50">
+        <v>2</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+      <c r="G50" t="s">
+        <v>72</v>
+      </c>
+      <c r="H50">
+        <v>2</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A51" t="s">
+        <v>108</v>
+      </c>
+      <c r="B51" t="s">
+        <v>109</v>
+      </c>
+      <c r="C51">
+        <v>9</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51" t="s">
+        <v>72</v>
+      </c>
+      <c r="H51">
+        <v>9</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A52" t="s">
+        <v>110</v>
+      </c>
+      <c r="B52" t="s">
+        <v>111</v>
+      </c>
+      <c r="C52">
+        <v>15</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52" t="s">
+        <v>72</v>
+      </c>
+      <c r="H52">
+        <v>15</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A53" t="s">
+        <v>112</v>
+      </c>
+      <c r="B53" t="s">
+        <v>113</v>
+      </c>
+      <c r="C53">
+        <v>1</v>
+      </c>
+      <c r="D53">
+        <v>0</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="F53">
+        <v>0</v>
+      </c>
+      <c r="G53" t="s">
+        <v>72</v>
+      </c>
+      <c r="H53">
+        <v>1</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A54" t="s">
+        <v>112</v>
+      </c>
+      <c r="B54" t="s">
+        <v>114</v>
+      </c>
+      <c r="C54">
+        <v>2</v>
+      </c>
+      <c r="D54">
+        <v>0</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <v>0</v>
+      </c>
+      <c r="G54" t="s">
+        <v>72</v>
+      </c>
+      <c r="H54">
+        <v>2</v>
+      </c>
+      <c r="I54">
         <v>0</v>
       </c>
     </row>
